--- a/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>中海优势精选灵活配置混合</t>
   </si>
   <si>
+    <t>1.90</t>
+  </si>
+  <si>
     <t>71.95</t>
   </si>
   <si>
     <t>5.71</t>
+  </si>
+  <si>
+    <t>0.1085</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>393001</t>
-  </si>
-  <si>
-    <t>中海优势精选灵活配置混合</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>71.95</t>
-  </si>
-  <si>
-    <t>5.71</t>
-  </si>
-  <si>
-    <t>0.1085</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1167,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.53</v>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.37</v>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,1215 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,17 +2495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2514,14 +2535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.32</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2530,14 +2573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -2546,14 +2611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -2562,14 +2649,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.37</v>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2578,13 +2687,1573 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001466</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001467</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.470000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>9.470000000000001</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>2.32</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -583,6 +600,2682 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1420</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9435</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013017</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013018</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2234,7 +4927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3506,7 +6199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3669,252 +6362,6 @@
       </c>
       <c r="H4" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2349</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1755</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>393001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中海优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>73.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1067</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3979,36 +6426,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1464</t>
+          <t>0.2349</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4017,36 +6464,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>83.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1043</t>
+          <t>0.1755</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4065,22 +6512,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.82</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1012</t>
+          <t>0.1067</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4103,26 +6550,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4141,26 +6588,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4169,6 +6616,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002244-滨江集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>14.01</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>9.470000000000001</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>2.32</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>0.64</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -600,6 +617,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8762</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6391</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2982</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003176</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦景颐债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003177</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦景颐债券C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3275,7 +4334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4927,7 +5986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6199,7 +7258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6362,252 +7421,6 @@
       </c>
       <c r="H4" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2349</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1755</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>393001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中海优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>73.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1067</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6672,36 +7485,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1464</t>
+          <t>0.2349</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6710,36 +7523,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>83.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1043</t>
+          <t>0.1755</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6758,22 +7571,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.82</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1012</t>
+          <t>0.1067</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -6796,26 +7609,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6834,26 +7647,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6862,6 +7675,252 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
